--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f7c762a89876f48/R/projects/jy_CV_original/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f7c762a89876f48/R/projects/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60980314-EEC1-A04D-A6B2-06A3996BBC64}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1852375-81F3-414E-AE3E-C9B29FEA36AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="192">
   <si>
     <t>what</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Public Diplomacy Cases from Across the World</t>
   </si>
   <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
     <t>South Korea’s Public Diplomacy during the COVID-19 Pandemic and Beyond</t>
   </si>
   <si>
@@ -575,6 +572,30 @@
   </si>
   <si>
     <t>2013, November 14</t>
+  </si>
+  <si>
+    <t>Global HR Forum</t>
+  </si>
+  <si>
+    <t>2022, November 2</t>
+  </si>
+  <si>
+    <t>Public Diplomacy Evaluation</t>
+  </si>
+  <si>
+    <t>Global Citizenship Education, Intercultural Communication and Foreign Aid</t>
+  </si>
+  <si>
+    <t>2022, August 19</t>
+  </si>
+  <si>
+    <t>Coexisting in Korea with Diverse Members of the Society</t>
+  </si>
+  <si>
+    <t>Local Government Officials Development Institute (Training for High-level Local Government Officials)</t>
+  </si>
+  <si>
+    <t>Wanju</t>
   </si>
 </sst>
 </file>
@@ -1150,6 +1171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1480,891 +1505,925 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>189</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="16">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="3" t="s">
-        <v>146</v>
+      <c r="A13" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16">
       <c r="A21" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>117</v>
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16">
       <c r="A23" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16">
       <c r="A24" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16">
       <c r="A26" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16">
       <c r="A31" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16">
       <c r="A32" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16">
       <c r="A33" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16">
       <c r="A34" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16">
       <c r="A35" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16">
       <c r="A37" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16">
       <c r="A39" s="3" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16">
       <c r="A40" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16">
       <c r="A41" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>79</v>
+        <v>117</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16">
       <c r="A42" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16">
       <c r="A43" s="3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16">
       <c r="A46" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16">
       <c r="A47" s="3" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16">
       <c r="A48" s="3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>173</v>
+        <v>42</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16">
       <c r="A49" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16">
       <c r="A51" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16">
       <c r="A52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16">
+      <c r="A53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16">
+      <c r="A54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="E54" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16">
+      <c r="A55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16">
-      <c r="A53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="E55" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>54</v>
+      <c r="E56" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/talk.xlsx
+++ b/data/talk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f7c762a89876f48/R/projects/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1852375-81F3-414E-AE3E-C9B29FEA36AF}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C903904-9BB7-384E-A58A-BB729CAA429D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,13 +1100,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,10 +1170,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1477,19 +1472,18 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1498,18 +1492,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1518,899 +1512,899 @@
       <c r="C2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2422,7 +2416,7 @@
       <c r="D56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
